--- a/medicine/Enfance/Rebecca_Abe/Rebecca_Abe.xlsx
+++ b/medicine/Enfance/Rebecca_Abe/Rebecca_Abe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stephanie Fey alias Rebecca Abe (Starnberg, 1967) est une femme de lettres et illustratrice allemande.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a étudié le graphisme à Munich ; ses premières illustrations publiées ont paru dans une édition de Heidi de Johanna Spyri. Elle a illustré plusieurs livres scolaires et pour les enfants.
 </t>
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Das Gedächtnis der Lüge. Skalding Verlag, 2008
 Im Labyrinth der Fugger. Gmeiner-Verlag 2011
@@ -576,7 +592,9 @@
           <t>Œuvres en français</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sonja Fiedler, dessins de Rebecca Abe, Mes incroyables histoires de dinos [« Dinosauriergeschichten »], trad. de Cédric Gervy, Roubaix, France, Éditions Chantecler, coll. « Lire, quelle aventure ! », 2011, 46 p.  (ISBN 978-2-8034-5460-0)</t>
         </is>
